--- a/Reference/ReadMe.xlsx
+++ b/Reference/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="hard ref" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5Kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极限过载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,6 +591,10 @@
   </si>
   <si>
     <t>Strong    强力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50Kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,10 +694,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1912,7 +1915,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1923,7 +1926,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1935,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1941,164 +1944,164 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
+      <c r="A20" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2133,14 +2136,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:6">
-      <c r="B6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2156,130 +2159,130 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="13" t="s">
-        <v>146</v>
+      <c r="F19" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="10">
         <v>0</v>
@@ -2287,162 +2290,162 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
         <v>118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="43.2">
       <c r="E32" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="B53" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="B54" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="B55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="B56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
         <v>132</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>133</v>
-      </c>
-      <c r="D57" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60">
         <v>1200</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>1200</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="B64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2462,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2477,126 +2480,126 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="G6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="H7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="57.6">
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="28.8">
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2611,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2622,74 +2625,74 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
